--- a/Sujets/BackLogs.xlsx
+++ b/Sujets/BackLogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DC1.BTSSIO82.local\Shares\ProfilsUtilisateurs$\r.delmas\Documents\GitHub\WebCaisse\Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBE9B940-09F8-41BC-A4F5-C74E4DCE571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3411BA8B-BFD1-4B97-A00B-4C29E7F40B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2259508-8253-4D73-8B53-A1B215374A45}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">choisir la langue du logiciel et des modules </t>
-  </si>
-  <si>
-    <t xml:space="preserve">changer de formule </t>
-  </si>
-  <si>
-    <t>gérer une souscription unique a chaque point de vente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Titre User Story</t>
   </si>
@@ -57,6 +48,33 @@
   </si>
   <si>
     <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Tâches techniques</t>
+  </si>
+  <si>
+    <t>Choix de formule</t>
+  </si>
+  <si>
+    <t>Modules de statistiques</t>
+  </si>
+  <si>
+    <t>Module de gestion de vente</t>
+  </si>
+  <si>
+    <t>Module de gestion de stock</t>
+  </si>
+  <si>
+    <t>Module de campagne publicitaire</t>
+  </si>
+  <si>
+    <t>Module d'aide a la décision</t>
+  </si>
+  <si>
+    <t>Module de gestion aide a la relation client et E-commerce</t>
+  </si>
+  <si>
+    <t>Faible</t>
   </si>
   <si>
     <r>
@@ -66,7 +84,7 @@
         <rFont val="Century"/>
         <family val="1"/>
       </rPr>
-      <t>souscrire à un logiciel de caisse</t>
+      <t>Souscrire à un logiciel de caisse</t>
     </r>
     <r>
       <rPr>
@@ -80,43 +98,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">choisir un programme de fidélisation </t>
-  </si>
-  <si>
-    <t>Tâches techniques</t>
-  </si>
-  <si>
-    <t>Choix de formule</t>
-  </si>
-  <si>
-    <t>historique des formules souscrites</t>
-  </si>
-  <si>
-    <t>Modules de statistiques</t>
-  </si>
-  <si>
-    <t>Module de gestion de vente</t>
-  </si>
-  <si>
-    <t>Module de gestion de stock</t>
-  </si>
-  <si>
-    <t>Module de campagne publicitaire</t>
-  </si>
-  <si>
-    <t>Module d'aide a la décision</t>
-  </si>
-  <si>
-    <t>Module de gestion aide a la relation client et E-commerce</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Moyenne ??</t>
-  </si>
-  <si>
-    <t>Faible</t>
+    <t xml:space="preserve">Choisir un programme de fidélisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer de formule </t>
+  </si>
+  <si>
+    <t>Gérer une souscription unique a chaque point de vente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir la langue du logiciel et des modules </t>
+  </si>
+  <si>
+    <t>Historique des formules souscrites</t>
   </si>
 </sst>
 </file>
@@ -535,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F48305-50D2-4704-8CE8-F6584B0C71CC}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -548,130 +542,130 @@
     <col min="3" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="B2:B6" customList="Haute,Moyenne,Faible"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Sujets/BackLogs.xlsx
+++ b/Sujets/BackLogs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DC1.BTSSIO82.local\Shares\ProfilsUtilisateurs$\r.delmas\Documents\GitHub\WebCaisse\Sujets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3411BA8B-BFD1-4B97-A00B-4C29E7F40B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B910574-FB69-4AF3-BBD3-60DB80A75473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2259508-8253-4D73-8B53-A1B215374A45}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2259508-8253-4D73-8B53-A1B215374A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Titre User Story</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Historique des formules souscrites</t>
+  </si>
+  <si>
+    <t>module gestion point de vente</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -215,6 +218,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F48305-50D2-4704-8CE8-F6584B0C71CC}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -662,6 +666,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
     <sortCondition ref="B2:B6" customList="Haute,Moyenne,Faible"/>
